--- a/biology/Zoologie/Gerbille_hespérine/Gerbille_hespérine.xlsx
+++ b/biology/Zoologie/Gerbille_hespérine/Gerbille_hespérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gerbille_hesp%C3%A9rine</t>
+          <t>Gerbille_hespérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus hesperinus
-La Gerbille hespérine[1] (Gerbillus hesperinus ou Gerbillus (Gerbillus) hesperinus) est une espèce qui fait partie des rongeurs. Cette gerbille de la famille des Muridés est une espèce en danger[2], endémique du Maroc.
+La Gerbille hespérine (Gerbillus hesperinus ou Gerbillus (Gerbillus) hesperinus) est une espèce qui fait partie des rongeurs. Cette gerbille de la famille des Muridés est une espèce en danger, endémique du Maroc.
 </t>
         </is>
       </c>
